--- a/exels/1_1403410200-2472100400 2 copy.htm.xlsx
+++ b/exels/1_1403410200-2472100400 2 copy.htm.xlsx
@@ -452,16 +452,16 @@
         <v>ÇMİ</v>
       </c>
       <c r="F3" t="str">
-        <v>2417401000</v>
+        <v>1401800100</v>
       </c>
       <c r="G3" t="str">
-        <v>ON DUVAR IZGARA GRUBU (GRUNDIG) ARC 1050</v>
+        <v>PROLOGUE ON KAPAK GR (KORUYUCULU)</v>
       </c>
       <c r="H3" t="str">
         <v>TEKKAN PLASTIK SANAYI VE TIC.</v>
       </c>
       <c r="I3" t="str">
-        <v>3,200302</v>
+        <v>160,610366</v>
       </c>
       <c r="J3" t="str">
         <v>TRY</v>
@@ -526,9 +526,11 @@
         <v>Pros.</v>
       </c>
       <c r="O4" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="P4" t="str">
         <v>Fiyat</v>
       </c>
-      <c r="P4" t="str"/>
       <c r="Q4" t="str"/>
       <c r="R4" t="str"/>
       <c r="S4" t="str"/>
@@ -551,10 +553,10 @@
       </c>
       <c r="D5" t="str"/>
       <c r="E5" t="str">
-        <v>2840475500</v>
+        <v>1406500200</v>
       </c>
       <c r="F5" t="str">
-        <v>ON DVR IZGARA GRNDG(TIP07+ARC 1050)</v>
+        <v>PROLOGUE KORUYUCU KAPAK GR</v>
       </c>
       <c r="G5" t="str">
         <v>1</v>
@@ -572,7 +574,7 @@
         <v>1,82</v>
       </c>
       <c r="L5" t="str">
-        <v>2,882525</v>
+        <v>29,974702</v>
       </c>
       <c r="M5" t="str">
         <v>0</v>
@@ -581,9 +583,11 @@
         <v>0</v>
       </c>
       <c r="O5" t="str">
-        <v>2,882525</v>
-      </c>
-      <c r="P5" t="str"/>
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
+        <v>29,974702</v>
+      </c>
       <c r="Q5" t="str"/>
       <c r="R5" t="str"/>
       <c r="S5" t="str"/>
@@ -638,9 +642,11 @@
         <v>Pros.</v>
       </c>
       <c r="O6" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="P6" t="str">
         <v>Fiyat</v>
       </c>
-      <c r="P6" t="str"/>
       <c r="Q6" t="str"/>
       <c r="R6" t="str"/>
       <c r="S6" t="str"/>
@@ -663,10 +669,10 @@
       </c>
       <c r="D7" t="str"/>
       <c r="E7" t="str">
-        <v>2840470700</v>
+        <v>1400520400</v>
       </c>
       <c r="F7" t="str">
-        <v>ON DVR IZG. GRNDG (KOYU GRI RAL7015)</v>
+        <v>PROLOGUE KORUYUCU KAPAK</v>
       </c>
       <c r="G7" t="str">
         <v>1</v>
@@ -684,18 +690,20 @@
         <v>1,82</v>
       </c>
       <c r="L7" t="str">
-        <v>0,651023</v>
+        <v>23,951651</v>
       </c>
       <c r="M7" t="str">
         <v>0</v>
       </c>
       <c r="N7" t="str">
-        <v>0,497412</v>
+        <v>3,308733</v>
       </c>
       <c r="O7" t="str">
-        <v>1,148435</v>
-      </c>
-      <c r="P7" t="str"/>
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <v>27,260383</v>
+      </c>
       <c r="Q7" t="str"/>
       <c r="R7" t="str"/>
       <c r="S7" t="str"/>
@@ -779,16 +787,16 @@
       </c>
       <c r="D9" t="str"/>
       <c r="E9" t="str">
-        <v>9763086</v>
+        <v>9702809</v>
       </c>
       <c r="F9" t="str">
-        <v>ABS-DARK GRAY</v>
+        <v>MABS-DGR-I-HB-HG</v>
       </c>
       <c r="G9" t="str">
-        <v>0,0201</v>
+        <v>0,74062</v>
       </c>
       <c r="H9" t="str">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9" t="str">
         <v>KG</v>
@@ -803,7 +811,7 @@
         <v>1,82</v>
       </c>
       <c r="M9" t="str">
-        <v>29,99</v>
+        <v>29,4</v>
       </c>
       <c r="N9" t="str">
         <v>0</v>
@@ -812,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="str">
-        <v>0,018084</v>
+        <v>0,653227</v>
       </c>
       <c r="Q9" t="str">
-        <v>0,651023</v>
+        <v>23,951651</v>
       </c>
       <c r="R9" t="str"/>
       <c r="S9" t="str"/>
@@ -867,16 +875,16 @@
         <v> </v>
       </c>
       <c r="N10" t="str">
-        <v>0,008891</v>
+        <v>0,059143</v>
       </c>
       <c r="O10" t="str">
-        <v>0,456562</v>
+        <v>3,037</v>
       </c>
       <c r="P10" t="str">
-        <v>0,031959</v>
+        <v>0,21259</v>
       </c>
       <c r="Q10" t="str">
-        <v>0,497412</v>
+        <v>3,308733</v>
       </c>
       <c r="R10" t="str"/>
       <c r="S10" t="str"/>
@@ -947,28 +955,28 @@
         <v>Proses Maliyeti</v>
       </c>
       <c r="D12" t="str">
-        <v>150_TON_PLS_ENJ</v>
+        <v>600_TON_PLS_ENJ</v>
       </c>
       <c r="E12" t="str">
-        <v>82.14*[TRY]</v>
+        <v>182.22*[TRY]</v>
       </c>
       <c r="F12" t="str">
-        <v>82,14</v>
+        <v>182,22</v>
       </c>
       <c r="G12" t="str">
-        <v>0,667</v>
+        <v>1</v>
       </c>
       <c r="H12" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="str">
-        <v>0,456562</v>
+        <v>3,037</v>
       </c>
       <c r="J12" t="str">
         <v>0</v>
       </c>
       <c r="K12" t="str">
-        <v>0,456562</v>
+        <v>3,037</v>
       </c>
       <c r="L12" t="str"/>
       <c r="M12" t="str"/>
@@ -1035,7 +1043,7 @@
         <v> </v>
       </c>
       <c r="Q13" t="str">
-        <v>1,148435</v>
+        <v>27,260383</v>
       </c>
       <c r="R13" t="str"/>
       <c r="S13" t="str"/>
@@ -1054,14 +1062,14 @@
         <v> </v>
       </c>
       <c r="C14" t="str">
-        <v>KÜ</v>
+        <v>KYS</v>
       </c>
       <c r="D14" t="str"/>
       <c r="E14" t="str">
-        <v>9584047726</v>
+        <v>1402130100</v>
       </c>
       <c r="F14" t="str">
-        <v>YAS BOYA F1A2B1-ARC1050 (ABS)</v>
+        <v>KORUYUCU KAPAK FOLYO</v>
       </c>
       <c r="G14" t="str">
         <v>1</v>
@@ -1079,7 +1087,7 @@
         <v>1,82</v>
       </c>
       <c r="L14" t="str">
-        <v>1,73409</v>
+        <v>2,635262</v>
       </c>
       <c r="M14" t="str">
         <v>0</v>
@@ -1088,9 +1096,11 @@
         <v>0</v>
       </c>
       <c r="O14" t="str">
-        <v>1,73409</v>
-      </c>
-      <c r="P14" t="str"/>
+        <v>0,079058</v>
+      </c>
+      <c r="P14" t="str">
+        <v>2,714319</v>
+      </c>
       <c r="Q14" t="str"/>
       <c r="R14" t="str"/>
       <c r="S14" t="str"/>
@@ -1109,17 +1119,23 @@
         <v> </v>
       </c>
       <c r="C15" t="str">
+        <v> </v>
+      </c>
+      <c r="D15" t="str">
+        <v>ÜY</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F15" t="str">
         <v>Açıklama</v>
       </c>
-      <c r="D15" t="str">
-        <v>Esk.Formülü</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="G15" t="str">
+        <v>Tedarikçi</v>
+      </c>
+      <c r="H15" t="str">
         <v>Fiyat</v>
       </c>
-      <c r="F15" t="str"/>
-      <c r="G15" t="str"/>
-      <c r="H15" t="str"/>
       <c r="I15" t="str"/>
       <c r="J15" t="str"/>
       <c r="K15" t="str"/>
@@ -1146,17 +1162,23 @@
         <v> </v>
       </c>
       <c r="C16" t="str">
-        <v>Dinamik Eskalasyon Özet Verisi</v>
+        <v>KÜ</v>
       </c>
       <c r="D16" t="str">
-        <v>(1,73409 * TRY)</v>
+        <v>ÇMİ</v>
       </c>
       <c r="E16" t="str">
-        <v>1,73409</v>
-      </c>
-      <c r="F16" t="str"/>
-      <c r="G16" t="str"/>
-      <c r="H16" t="str"/>
+        <v>1402130100</v>
+      </c>
+      <c r="F16" t="str">
+        <v>KORUYUCU KAPAK FOLYO</v>
+      </c>
+      <c r="G16" t="str">
+        <v>BİRİKİM BİLGİSAYAR MAKİNA LTD.ŞTİ.</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2,635262</v>
+      </c>
       <c r="I16" t="str"/>
       <c r="J16" t="str"/>
       <c r="K16" t="str"/>
@@ -1183,17 +1205,23 @@
         <v> </v>
       </c>
       <c r="C17" t="str">
+        <v> </v>
+      </c>
+      <c r="D17" t="str">
+        <v> </v>
+      </c>
+      <c r="E17" t="str">
+        <v> </v>
+      </c>
+      <c r="F17" t="str">
         <v>Topl.</v>
       </c>
-      <c r="D17" t="str">
-        <v> </v>
-      </c>
-      <c r="E17" t="str">
-        <v>1,73409</v>
-      </c>
-      <c r="F17" t="str"/>
-      <c r="G17" t="str"/>
-      <c r="H17" t="str"/>
+      <c r="G17" t="str">
+        <v> </v>
+      </c>
+      <c r="H17" t="str">
+        <v>2,635262</v>
+      </c>
       <c r="I17" t="str"/>
       <c r="J17" t="str"/>
       <c r="K17" t="str"/>
@@ -1258,7 +1286,9 @@
       <c r="O18" t="str">
         <v>0</v>
       </c>
-      <c r="P18" t="str"/>
+      <c r="P18" t="str">
+        <v>0</v>
+      </c>
       <c r="Q18" t="str"/>
       <c r="R18" t="str"/>
       <c r="S18" t="str"/>
@@ -1286,21 +1316,23 @@
         <v>Esk.Formülü</v>
       </c>
       <c r="F19" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G19" t="str">
         <v>Op.Süresi(dk)</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>Çvrm. Adt</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>Pros.Net</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>Pros.Fire</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <v>Pros.</v>
       </c>
-      <c r="K19" t="str"/>
       <c r="L19" t="str"/>
       <c r="M19" t="str"/>
       <c r="N19" t="str"/>
@@ -1327,27 +1359,29 @@
         <v>Proses Maliyeti</v>
       </c>
       <c r="D20" t="str">
-        <v>BOYA_SAAT</v>
+        <v>GRUPLAMA_İŞÇİLİĞİ</v>
       </c>
       <c r="E20" t="str">
-        <v>0*[TRY]</v>
+        <v>52.57*[TRY]</v>
       </c>
       <c r="F20" t="str">
-        <v>0</v>
+        <v>52,57</v>
       </c>
       <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
         <v>1</v>
       </c>
-      <c r="H20" t="str">
-        <v>0</v>
-      </c>
       <c r="I20" t="str">
         <v>0</v>
       </c>
       <c r="J20" t="str">
         <v>0</v>
       </c>
-      <c r="K20" t="str"/>
+      <c r="K20" t="str">
+        <v>0</v>
+      </c>
       <c r="L20" t="str"/>
       <c r="M20" t="str"/>
       <c r="N20" t="str"/>
@@ -1407,9 +1441,11 @@
         <v> </v>
       </c>
       <c r="O21" t="str">
-        <v>2,882525</v>
-      </c>
-      <c r="P21" t="str"/>
+        <v> </v>
+      </c>
+      <c r="P21" t="str">
+        <v>29,974702</v>
+      </c>
       <c r="Q21" t="str"/>
       <c r="R21" t="str"/>
       <c r="S21" t="str"/>
@@ -1432,10 +1468,10 @@
       </c>
       <c r="D22" t="str"/>
       <c r="E22" t="str">
-        <v>2837920100</v>
+        <v>2466300900</v>
       </c>
       <c r="F22" t="str">
-        <v>ON DUVAR IZGARA FILTRESI (TERMA)</v>
+        <v>ON KAPAK CAMI UST GR.</v>
       </c>
       <c r="G22" t="str">
         <v>1</v>
@@ -1453,18 +1489,20 @@
         <v>1,82</v>
       </c>
       <c r="L22" t="str">
-        <v>0,114322</v>
+        <v>0</v>
       </c>
       <c r="M22" t="str">
         <v>0</v>
       </c>
       <c r="N22" t="str">
-        <v>0,203455</v>
+        <v>0</v>
       </c>
       <c r="O22" t="str">
-        <v>0,317777</v>
-      </c>
-      <c r="P22" t="str"/>
+        <v>0</v>
+      </c>
+      <c r="P22" t="str">
+        <v>0</v>
+      </c>
       <c r="Q22" t="str"/>
       <c r="R22" t="str"/>
       <c r="S22" t="str"/>
@@ -1498,35 +1536,29 @@
         <v>Sarf</v>
       </c>
       <c r="H23" t="str">
-        <v>Fire</v>
+        <v>Brm</v>
       </c>
       <c r="I23" t="str">
-        <v>Brm</v>
+        <v>MMO%</v>
       </c>
       <c r="J23" t="str">
-        <v>MMO%</v>
+        <v>PMO%</v>
       </c>
       <c r="K23" t="str">
-        <v>PMO%</v>
+        <v>PFO%</v>
       </c>
       <c r="L23" t="str">
-        <v>PFO%</v>
+        <v>FO T.</v>
       </c>
       <c r="M23" t="str">
-        <v>Malz.</v>
+        <v>Pros.</v>
       </c>
       <c r="N23" t="str">
-        <v>FO T.</v>
-      </c>
-      <c r="O23" t="str">
-        <v>Pros.</v>
-      </c>
-      <c r="P23" t="str">
-        <v>MO T.</v>
-      </c>
-      <c r="Q23" t="str">
         <v>Fiyat</v>
       </c>
+      <c r="O23" t="str"/>
+      <c r="P23" t="str"/>
+      <c r="Q23" t="str"/>
       <c r="R23" t="str"/>
       <c r="S23" t="str"/>
       <c r="T23" t="str">
@@ -1544,48 +1576,42 @@
         <v> </v>
       </c>
       <c r="C24" t="str">
-        <v>AS</v>
+        <v>AE</v>
       </c>
       <c r="D24" t="str"/>
       <c r="E24" t="str">
-        <v>9711900</v>
+        <v>2842650200</v>
       </c>
       <c r="F24" t="str">
-        <v>PPHO-NAT-I-HB</v>
+        <v>ON KAPAK CAMI(ARC)</v>
       </c>
       <c r="G24" t="str">
-        <v>0,00505</v>
+        <v>1</v>
       </c>
       <c r="H24" t="str">
-        <v>2</v>
+        <v>ST</v>
       </c>
       <c r="I24" t="str">
-        <v>KG</v>
+        <v>3</v>
       </c>
       <c r="J24" t="str">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K24" t="str">
-        <v>7</v>
+        <v>1,82</v>
       </c>
       <c r="L24" t="str">
-        <v>1,82</v>
+        <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>21,56</v>
+        <v>0</v>
       </c>
       <c r="N24" t="str">
         <v>0</v>
       </c>
-      <c r="O24" t="str">
-        <v>0</v>
-      </c>
-      <c r="P24" t="str">
-        <v>0,003266</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>0,114322</v>
-      </c>
+      <c r="O24" t="str"/>
+      <c r="P24" t="str"/>
+      <c r="Q24" t="str"/>
       <c r="R24" t="str"/>
       <c r="S24" t="str"/>
       <c r="T24" t="str">
@@ -1624,29 +1650,23 @@
         <v> </v>
       </c>
       <c r="J25" t="str">
-        <v> </v>
+        <v>7</v>
       </c>
       <c r="K25" t="str">
-        <v>7</v>
+        <v>1,82</v>
       </c>
       <c r="L25" t="str">
-        <v>1,82</v>
+        <v>0</v>
       </c>
       <c r="M25" t="str">
-        <v> </v>
+        <v>0</v>
       </c>
       <c r="N25" t="str">
-        <v>0,003637</v>
-      </c>
-      <c r="O25" t="str">
-        <v>0,186747</v>
-      </c>
-      <c r="P25" t="str">
-        <v>0,013072</v>
-      </c>
-      <c r="Q25" t="str">
-        <v>0,203455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O25" t="str"/>
+      <c r="P25" t="str"/>
+      <c r="Q25" t="str"/>
       <c r="R25" t="str"/>
       <c r="S25" t="str"/>
       <c r="T25" t="str">
@@ -1716,28 +1736,28 @@
         <v>Proses Maliyeti</v>
       </c>
       <c r="D27" t="str">
-        <v>70_TON_PLS_ENJ</v>
+        <v>GRUPLAMA_İŞÇİLİĞİ</v>
       </c>
       <c r="E27" t="str">
-        <v>53.74*[TRY]</v>
+        <v>52.57*[TRY]</v>
       </c>
       <c r="F27" t="str">
-        <v>53,74</v>
+        <v>52,57</v>
       </c>
       <c r="G27" t="str">
-        <v>0,417</v>
+        <v>0</v>
       </c>
       <c r="H27" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="str">
-        <v>0,186747</v>
+        <v>0</v>
       </c>
       <c r="J27" t="str">
         <v>0</v>
       </c>
       <c r="K27" t="str">
-        <v>0,186747</v>
+        <v>0</v>
       </c>
       <c r="L27" t="str"/>
       <c r="M27" t="str"/>
@@ -1795,17 +1815,11 @@
         <v> </v>
       </c>
       <c r="N28" t="str">
-        <v> </v>
-      </c>
-      <c r="O28" t="str">
-        <v> </v>
-      </c>
-      <c r="P28" t="str">
-        <v> </v>
-      </c>
-      <c r="Q28" t="str">
-        <v>0,317777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O28" t="str"/>
+      <c r="P28" t="str"/>
+      <c r="Q28" t="str"/>
       <c r="R28" t="str"/>
       <c r="S28" t="str"/>
       <c r="T28" t="str">
@@ -1823,25 +1837,23 @@
         <v> </v>
       </c>
       <c r="C29" t="str">
-        <v> </v>
-      </c>
-      <c r="D29" t="str">
-        <v> </v>
-      </c>
+        <v>KÜ</v>
+      </c>
+      <c r="D29" t="str"/>
       <c r="E29" t="str">
-        <v> </v>
+        <v>1404230100</v>
       </c>
       <c r="F29" t="str">
-        <v>Op.Plan</v>
+        <v>PROLOGUE ABS ALT KAPAK (SIYAH)</v>
       </c>
       <c r="G29" t="str">
-        <v> </v>
+        <v>1</v>
       </c>
       <c r="H29" t="str">
-        <v> </v>
+        <v>ST</v>
       </c>
       <c r="I29" t="str">
-        <v> </v>
+        <v>3</v>
       </c>
       <c r="J29" t="str">
         <v>7</v>
@@ -1850,18 +1862,20 @@
         <v>1,82</v>
       </c>
       <c r="L29" t="str">
-        <v> </v>
+        <v>12,18672</v>
       </c>
       <c r="M29" t="str">
         <v>0</v>
       </c>
       <c r="N29" t="str">
-        <v>0</v>
+        <v>3,077442</v>
       </c>
       <c r="O29" t="str">
         <v>0</v>
       </c>
-      <c r="P29" t="str"/>
+      <c r="P29" t="str">
+        <v>15,264162</v>
+      </c>
       <c r="Q29" t="str"/>
       <c r="R29" t="str"/>
       <c r="S29" t="str"/>
@@ -1883,35 +1897,47 @@
         <v> </v>
       </c>
       <c r="D30" t="str">
+        <v> </v>
+      </c>
+      <c r="E30" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F30" t="str">
         <v>Açıklama</v>
       </c>
-      <c r="E30" t="str">
-        <v>Esk.Formülü</v>
-      </c>
-      <c r="F30" t="str">
-        <v>Mlyt(Sa)</v>
-      </c>
       <c r="G30" t="str">
-        <v>Op.Süresi(dk)</v>
+        <v>Sarf</v>
       </c>
       <c r="H30" t="str">
-        <v>Çvrm. Adt</v>
+        <v>Fire</v>
       </c>
       <c r="I30" t="str">
-        <v>Pros.Net</v>
+        <v>Brm</v>
       </c>
       <c r="J30" t="str">
-        <v>Pros.Fire</v>
+        <v>MMO%</v>
       </c>
       <c r="K30" t="str">
+        <v>PMO%</v>
+      </c>
+      <c r="L30" t="str">
+        <v>PFO%</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Malz.</v>
+      </c>
+      <c r="N30" t="str">
+        <v>FO T.</v>
+      </c>
+      <c r="O30" t="str">
         <v>Pros.</v>
       </c>
-      <c r="L30" t="str"/>
-      <c r="M30" t="str"/>
-      <c r="N30" t="str"/>
-      <c r="O30" t="str"/>
-      <c r="P30" t="str"/>
-      <c r="Q30" t="str"/>
+      <c r="P30" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Fiyat</v>
+      </c>
       <c r="R30" t="str"/>
       <c r="S30" t="str"/>
       <c r="T30" t="str">
@@ -1929,38 +1955,48 @@
         <v> </v>
       </c>
       <c r="C31" t="str">
-        <v>Proses Maliyeti</v>
-      </c>
-      <c r="D31" t="str">
-        <v>GRUPLAMA_İŞÇİLİĞİ</v>
-      </c>
+        <v>AS</v>
+      </c>
+      <c r="D31" t="str"/>
       <c r="E31" t="str">
-        <v>52.73*[TRY]</v>
+        <v>9764070</v>
       </c>
       <c r="F31" t="str">
-        <v>52,73</v>
+        <v>ABS-BLK-I-HB-HG</v>
       </c>
       <c r="G31" t="str">
-        <v>0</v>
+        <v>0,455</v>
       </c>
       <c r="H31" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31" t="str">
-        <v>0</v>
+        <v>KG</v>
       </c>
       <c r="J31" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="str">
-        <v>0</v>
-      </c>
-      <c r="L31" t="str"/>
-      <c r="M31" t="str"/>
-      <c r="N31" t="str"/>
-      <c r="O31" t="str"/>
-      <c r="P31" t="str"/>
-      <c r="Q31" t="str"/>
+        <v>7</v>
+      </c>
+      <c r="L31" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M31" t="str">
+        <v>24,8</v>
+      </c>
+      <c r="N31" t="str">
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <v>0</v>
+      </c>
+      <c r="P31" t="str">
+        <v>0,33852</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>12,18672</v>
+      </c>
       <c r="R31" t="str"/>
       <c r="S31" t="str"/>
       <c r="T31" t="str">
@@ -1972,7 +2008,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="str">
         <v> </v>
@@ -1987,7 +2023,7 @@
         <v> </v>
       </c>
       <c r="F32" t="str">
-        <v>Topl.</v>
+        <v>Op.Plan</v>
       </c>
       <c r="G32" t="str">
         <v> </v>
@@ -2002,28 +2038,2831 @@
         <v> </v>
       </c>
       <c r="K32" t="str">
-        <v> </v>
+        <v>7</v>
       </c>
       <c r="L32" t="str">
-        <v> </v>
+        <v>1,82</v>
       </c>
       <c r="M32" t="str">
         <v> </v>
       </c>
       <c r="N32" t="str">
-        <v> </v>
+        <v>0,055008</v>
       </c>
       <c r="O32" t="str">
-        <v>3,200302</v>
-      </c>
-      <c r="P32" t="str"/>
-      <c r="Q32" t="str"/>
+        <v>2,824705</v>
+      </c>
+      <c r="P32" t="str">
+        <v>0,197729</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>3,077442</v>
+      </c>
       <c r="R32" t="str"/>
       <c r="S32" t="str"/>
       <c r="T32" t="str">
         <v>10/7/2021</v>
       </c>
       <c r="U32" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>3_header_</v>
+      </c>
+      <c r="B33" t="str">
+        <v> </v>
+      </c>
+      <c r="C33" t="str">
+        <v> </v>
+      </c>
+      <c r="D33" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Esk.Formülü</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Op.Süresi(dk)</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Çvrm. Adt</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Pros.Net</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Pros.Fire</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="L33" t="str"/>
+      <c r="M33" t="str"/>
+      <c r="N33" t="str"/>
+      <c r="O33" t="str"/>
+      <c r="P33" t="str"/>
+      <c r="Q33" t="str"/>
+      <c r="R33" t="str"/>
+      <c r="S33" t="str"/>
+      <c r="T33" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U33" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>3</v>
+      </c>
+      <c r="B34" t="str">
+        <v> </v>
+      </c>
+      <c r="C34" t="str">
+        <v>Proses Maliyeti</v>
+      </c>
+      <c r="D34" t="str">
+        <v>450_TON_PLS_ENJ</v>
+      </c>
+      <c r="E34" t="str">
+        <v>158.84*[TRY]</v>
+      </c>
+      <c r="F34" t="str">
+        <v>158,84</v>
+      </c>
+      <c r="G34" t="str">
+        <v>1,067</v>
+      </c>
+      <c r="H34" t="str">
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <v>2,824705</v>
+      </c>
+      <c r="J34" t="str">
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
+        <v>2,824705</v>
+      </c>
+      <c r="L34" t="str"/>
+      <c r="M34" t="str"/>
+      <c r="N34" t="str"/>
+      <c r="O34" t="str"/>
+      <c r="P34" t="str"/>
+      <c r="Q34" t="str"/>
+      <c r="R34" t="str"/>
+      <c r="S34" t="str"/>
+      <c r="T34" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U34" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2</v>
+      </c>
+      <c r="B35" t="str">
+        <v> </v>
+      </c>
+      <c r="C35" t="str">
+        <v> </v>
+      </c>
+      <c r="D35" t="str">
+        <v> </v>
+      </c>
+      <c r="E35" t="str">
+        <v> </v>
+      </c>
+      <c r="F35" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G35" t="str">
+        <v> </v>
+      </c>
+      <c r="H35" t="str">
+        <v> </v>
+      </c>
+      <c r="I35" t="str">
+        <v> </v>
+      </c>
+      <c r="J35" t="str">
+        <v> </v>
+      </c>
+      <c r="K35" t="str">
+        <v> </v>
+      </c>
+      <c r="L35" t="str">
+        <v> </v>
+      </c>
+      <c r="M35" t="str">
+        <v> </v>
+      </c>
+      <c r="N35" t="str">
+        <v> </v>
+      </c>
+      <c r="O35" t="str">
+        <v> </v>
+      </c>
+      <c r="P35" t="str">
+        <v> </v>
+      </c>
+      <c r="Q35" t="str">
+        <v>15,264162</v>
+      </c>
+      <c r="R35" t="str"/>
+      <c r="S35" t="str"/>
+      <c r="T35" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U35" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>1</v>
+      </c>
+      <c r="B36" t="str">
+        <v> </v>
+      </c>
+      <c r="C36" t="str">
+        <v>KYS</v>
+      </c>
+      <c r="D36" t="str"/>
+      <c r="E36" t="str">
+        <v>2851560200</v>
+      </c>
+      <c r="F36" t="str">
+        <v>IT CEK KANCA</v>
+      </c>
+      <c r="G36" t="str">
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I36" t="str">
+        <v>3</v>
+      </c>
+      <c r="J36" t="str">
+        <v>7</v>
+      </c>
+      <c r="K36" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L36" t="str">
+        <v>0,689305</v>
+      </c>
+      <c r="M36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N36" t="str">
+        <v>0</v>
+      </c>
+      <c r="O36" t="str">
+        <v>0,020679</v>
+      </c>
+      <c r="P36" t="str">
+        <v>0,709984</v>
+      </c>
+      <c r="Q36" t="str"/>
+      <c r="R36" t="str"/>
+      <c r="S36" t="str"/>
+      <c r="T36" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U36" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B37" t="str">
+        <v> </v>
+      </c>
+      <c r="C37" t="str">
+        <v> </v>
+      </c>
+      <c r="D37" t="str">
+        <v>ÜY</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Tedarikçi</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="I37" t="str"/>
+      <c r="J37" t="str"/>
+      <c r="K37" t="str"/>
+      <c r="L37" t="str"/>
+      <c r="M37" t="str"/>
+      <c r="N37" t="str"/>
+      <c r="O37" t="str"/>
+      <c r="P37" t="str"/>
+      <c r="Q37" t="str"/>
+      <c r="R37" t="str"/>
+      <c r="S37" t="str"/>
+      <c r="T37" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U37" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2</v>
+      </c>
+      <c r="B38" t="str">
+        <v> </v>
+      </c>
+      <c r="C38" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ÇMİ</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2851560200</v>
+      </c>
+      <c r="F38" t="str">
+        <v>IT CEK KANCA</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Ruba Fermuar ve Pres Döküm San.A.S</v>
+      </c>
+      <c r="H38" t="str">
+        <v>0,689305</v>
+      </c>
+      <c r="I38" t="str"/>
+      <c r="J38" t="str"/>
+      <c r="K38" t="str"/>
+      <c r="L38" t="str"/>
+      <c r="M38" t="str"/>
+      <c r="N38" t="str"/>
+      <c r="O38" t="str"/>
+      <c r="P38" t="str"/>
+      <c r="Q38" t="str"/>
+      <c r="R38" t="str"/>
+      <c r="S38" t="str"/>
+      <c r="T38" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U38" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2</v>
+      </c>
+      <c r="B39" t="str">
+        <v> </v>
+      </c>
+      <c r="C39" t="str">
+        <v> </v>
+      </c>
+      <c r="D39" t="str">
+        <v> </v>
+      </c>
+      <c r="E39" t="str">
+        <v> </v>
+      </c>
+      <c r="F39" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G39" t="str">
+        <v> </v>
+      </c>
+      <c r="H39" t="str">
+        <v>0,689305</v>
+      </c>
+      <c r="I39" t="str"/>
+      <c r="J39" t="str"/>
+      <c r="K39" t="str"/>
+      <c r="L39" t="str"/>
+      <c r="M39" t="str"/>
+      <c r="N39" t="str"/>
+      <c r="O39" t="str"/>
+      <c r="P39" t="str"/>
+      <c r="Q39" t="str"/>
+      <c r="R39" t="str"/>
+      <c r="S39" t="str"/>
+      <c r="T39" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U39" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>1</v>
+      </c>
+      <c r="B40" t="str">
+        <v> </v>
+      </c>
+      <c r="C40" t="str">
+        <v>KYS</v>
+      </c>
+      <c r="D40" t="str"/>
+      <c r="E40" t="str">
+        <v>1400530100</v>
+      </c>
+      <c r="F40" t="str">
+        <v>PROLOGUE MENTESE (KABLOSUZ)</v>
+      </c>
+      <c r="G40" t="str">
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3</v>
+      </c>
+      <c r="J40" t="str">
+        <v>7</v>
+      </c>
+      <c r="K40" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L40" t="str">
+        <v>12,566104</v>
+      </c>
+      <c r="M40" t="str">
+        <v>0</v>
+      </c>
+      <c r="N40" t="str">
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <v>0,376983</v>
+      </c>
+      <c r="P40" t="str">
+        <v>12,943087</v>
+      </c>
+      <c r="Q40" t="str"/>
+      <c r="R40" t="str"/>
+      <c r="S40" t="str"/>
+      <c r="T40" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U40" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B41" t="str">
+        <v> </v>
+      </c>
+      <c r="C41" t="str">
+        <v> </v>
+      </c>
+      <c r="D41" t="str">
+        <v>ÜY</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Tedarikçi</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="I41" t="str"/>
+      <c r="J41" t="str"/>
+      <c r="K41" t="str"/>
+      <c r="L41" t="str"/>
+      <c r="M41" t="str"/>
+      <c r="N41" t="str"/>
+      <c r="O41" t="str"/>
+      <c r="P41" t="str"/>
+      <c r="Q41" t="str"/>
+      <c r="R41" t="str"/>
+      <c r="S41" t="str"/>
+      <c r="T41" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U41" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2</v>
+      </c>
+      <c r="B42" t="str">
+        <v> </v>
+      </c>
+      <c r="C42" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D42" t="str">
+        <v>ÇMİ</v>
+      </c>
+      <c r="E42" t="str">
+        <v>1400530100</v>
+      </c>
+      <c r="F42" t="str">
+        <v>PROLOGUE MENTESE (KABLOSUZ)</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Ruba Fermuar ve Pres Döküm San.A.S</v>
+      </c>
+      <c r="H42" t="str">
+        <v>12,566104</v>
+      </c>
+      <c r="I42" t="str"/>
+      <c r="J42" t="str"/>
+      <c r="K42" t="str"/>
+      <c r="L42" t="str"/>
+      <c r="M42" t="str"/>
+      <c r="N42" t="str"/>
+      <c r="O42" t="str"/>
+      <c r="P42" t="str"/>
+      <c r="Q42" t="str"/>
+      <c r="R42" t="str"/>
+      <c r="S42" t="str"/>
+      <c r="T42" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U42" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2</v>
+      </c>
+      <c r="B43" t="str">
+        <v> </v>
+      </c>
+      <c r="C43" t="str">
+        <v> </v>
+      </c>
+      <c r="D43" t="str">
+        <v> </v>
+      </c>
+      <c r="E43" t="str">
+        <v> </v>
+      </c>
+      <c r="F43" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G43" t="str">
+        <v> </v>
+      </c>
+      <c r="H43" t="str">
+        <v>12,566104</v>
+      </c>
+      <c r="I43" t="str"/>
+      <c r="J43" t="str"/>
+      <c r="K43" t="str"/>
+      <c r="L43" t="str"/>
+      <c r="M43" t="str"/>
+      <c r="N43" t="str"/>
+      <c r="O43" t="str"/>
+      <c r="P43" t="str"/>
+      <c r="Q43" t="str"/>
+      <c r="R43" t="str"/>
+      <c r="S43" t="str"/>
+      <c r="T43" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U43" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>1</v>
+      </c>
+      <c r="B44" t="str">
+        <v> </v>
+      </c>
+      <c r="C44" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D44" t="str"/>
+      <c r="E44" t="str">
+        <v>1400560100</v>
+      </c>
+      <c r="F44" t="str">
+        <v>PROLOGUE MENTESE BURCU</v>
+      </c>
+      <c r="G44" t="str">
+        <v>4</v>
+      </c>
+      <c r="H44" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I44" t="str">
+        <v>3</v>
+      </c>
+      <c r="J44" t="str">
+        <v>7</v>
+      </c>
+      <c r="K44" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L44" t="str">
+        <v>0,023004</v>
+      </c>
+      <c r="M44" t="str">
+        <v>0</v>
+      </c>
+      <c r="N44" t="str">
+        <v>0,053521</v>
+      </c>
+      <c r="O44" t="str">
+        <v>0</v>
+      </c>
+      <c r="P44" t="str">
+        <v>0,306104</v>
+      </c>
+      <c r="Q44" t="str"/>
+      <c r="R44" t="str"/>
+      <c r="S44" t="str"/>
+      <c r="T44" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U44" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B45" t="str">
+        <v> </v>
+      </c>
+      <c r="C45" t="str">
+        <v> </v>
+      </c>
+      <c r="D45" t="str">
+        <v> </v>
+      </c>
+      <c r="E45" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Sarf</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Brm</v>
+      </c>
+      <c r="I45" t="str">
+        <v>MMO%</v>
+      </c>
+      <c r="J45" t="str">
+        <v>PMO%</v>
+      </c>
+      <c r="K45" t="str">
+        <v>PFO%</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Malz.</v>
+      </c>
+      <c r="M45" t="str">
+        <v>FO T.</v>
+      </c>
+      <c r="N45" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="O45" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="P45" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="Q45" t="str"/>
+      <c r="R45" t="str"/>
+      <c r="S45" t="str"/>
+      <c r="T45" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U45" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2</v>
+      </c>
+      <c r="B46" t="str">
+        <v> </v>
+      </c>
+      <c r="C46" t="str">
+        <v>AS</v>
+      </c>
+      <c r="D46" t="str"/>
+      <c r="E46" t="str">
+        <v>9710300</v>
+      </c>
+      <c r="F46" t="str">
+        <v>POMCO-NAT-I-HB-FDA</v>
+      </c>
+      <c r="G46" t="str">
+        <v>0,001058</v>
+      </c>
+      <c r="H46" t="str">
+        <v>KG</v>
+      </c>
+      <c r="I46" t="str">
+        <v>3</v>
+      </c>
+      <c r="J46" t="str">
+        <v>7</v>
+      </c>
+      <c r="K46" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L46" t="str">
+        <v>21,11</v>
+      </c>
+      <c r="M46" t="str">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <v>0</v>
+      </c>
+      <c r="O46" t="str">
+        <v>0,00067</v>
+      </c>
+      <c r="P46" t="str">
+        <v>0,023004</v>
+      </c>
+      <c r="Q46" t="str"/>
+      <c r="R46" t="str"/>
+      <c r="S46" t="str"/>
+      <c r="T46" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U46" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2</v>
+      </c>
+      <c r="B47" t="str">
+        <v> </v>
+      </c>
+      <c r="C47" t="str">
+        <v> </v>
+      </c>
+      <c r="D47" t="str">
+        <v> </v>
+      </c>
+      <c r="E47" t="str">
+        <v> </v>
+      </c>
+      <c r="F47" t="str">
+        <v>Op.Plan</v>
+      </c>
+      <c r="G47" t="str">
+        <v> </v>
+      </c>
+      <c r="H47" t="str">
+        <v> </v>
+      </c>
+      <c r="I47" t="str">
+        <v> </v>
+      </c>
+      <c r="J47" t="str">
+        <v>7</v>
+      </c>
+      <c r="K47" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L47" t="str">
+        <v> </v>
+      </c>
+      <c r="M47" t="str">
+        <v>0,000957</v>
+      </c>
+      <c r="N47" t="str">
+        <v>0,049126</v>
+      </c>
+      <c r="O47" t="str">
+        <v>0,003439</v>
+      </c>
+      <c r="P47" t="str">
+        <v>0,053521</v>
+      </c>
+      <c r="Q47" t="str"/>
+      <c r="R47" t="str"/>
+      <c r="S47" t="str"/>
+      <c r="T47" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U47" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>3_header_</v>
+      </c>
+      <c r="B48" t="str">
+        <v> </v>
+      </c>
+      <c r="C48" t="str">
+        <v> </v>
+      </c>
+      <c r="D48" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Esk.Formülü</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Op.Süresi(dk)</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Çvrm. Adt</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Pros.Net</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Pros.Fire</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="L48" t="str"/>
+      <c r="M48" t="str"/>
+      <c r="N48" t="str"/>
+      <c r="O48" t="str"/>
+      <c r="P48" t="str"/>
+      <c r="Q48" t="str"/>
+      <c r="R48" t="str"/>
+      <c r="S48" t="str"/>
+      <c r="T48" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U48" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>3</v>
+      </c>
+      <c r="B49" t="str">
+        <v> </v>
+      </c>
+      <c r="C49" t="str">
+        <v>Proses Maliyeti</v>
+      </c>
+      <c r="D49" t="str">
+        <v>50_TON_PLS_ENJ</v>
+      </c>
+      <c r="E49" t="str">
+        <v>48.72*[TRY]</v>
+      </c>
+      <c r="F49" t="str">
+        <v>48,72</v>
+      </c>
+      <c r="G49" t="str">
+        <v>0,242</v>
+      </c>
+      <c r="H49" t="str">
+        <v>4</v>
+      </c>
+      <c r="I49" t="str">
+        <v>0,049126</v>
+      </c>
+      <c r="J49" t="str">
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
+        <v>0,049126</v>
+      </c>
+      <c r="L49" t="str"/>
+      <c r="M49" t="str"/>
+      <c r="N49" t="str"/>
+      <c r="O49" t="str"/>
+      <c r="P49" t="str"/>
+      <c r="Q49" t="str"/>
+      <c r="R49" t="str"/>
+      <c r="S49" t="str"/>
+      <c r="T49" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U49" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2</v>
+      </c>
+      <c r="B50" t="str">
+        <v> </v>
+      </c>
+      <c r="C50" t="str">
+        <v> </v>
+      </c>
+      <c r="D50" t="str">
+        <v> </v>
+      </c>
+      <c r="E50" t="str">
+        <v> </v>
+      </c>
+      <c r="F50" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G50" t="str">
+        <v> </v>
+      </c>
+      <c r="H50" t="str">
+        <v> </v>
+      </c>
+      <c r="I50" t="str">
+        <v> </v>
+      </c>
+      <c r="J50" t="str">
+        <v> </v>
+      </c>
+      <c r="K50" t="str">
+        <v> </v>
+      </c>
+      <c r="L50" t="str">
+        <v> </v>
+      </c>
+      <c r="M50" t="str">
+        <v> </v>
+      </c>
+      <c r="N50" t="str">
+        <v> </v>
+      </c>
+      <c r="O50" t="str">
+        <v> </v>
+      </c>
+      <c r="P50" t="str">
+        <v>0,076526</v>
+      </c>
+      <c r="Q50" t="str"/>
+      <c r="R50" t="str"/>
+      <c r="S50" t="str"/>
+      <c r="T50" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U50" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>1</v>
+      </c>
+      <c r="B51" t="str">
+        <v> </v>
+      </c>
+      <c r="C51" t="str">
+        <v>AS</v>
+      </c>
+      <c r="D51" t="str"/>
+      <c r="E51" t="str">
+        <v>1400485100</v>
+      </c>
+      <c r="F51" t="str">
+        <v>PROLOGUE DEKORATIF RING(KROM)</v>
+      </c>
+      <c r="G51" t="str">
+        <v>1</v>
+      </c>
+      <c r="H51" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I51" t="str">
+        <v>3</v>
+      </c>
+      <c r="J51" t="str">
+        <v>7</v>
+      </c>
+      <c r="K51" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L51" t="str">
+        <v>70,32</v>
+      </c>
+      <c r="M51" t="str">
+        <v>0</v>
+      </c>
+      <c r="N51" t="str">
+        <v>0</v>
+      </c>
+      <c r="O51" t="str">
+        <v>2,1096</v>
+      </c>
+      <c r="P51" t="str">
+        <v>72,4296</v>
+      </c>
+      <c r="Q51" t="str"/>
+      <c r="R51" t="str"/>
+      <c r="S51" t="str"/>
+      <c r="T51" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U51" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>1</v>
+      </c>
+      <c r="B52" t="str">
+        <v> </v>
+      </c>
+      <c r="C52" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D52" t="str"/>
+      <c r="E52" t="str">
+        <v>1400470300</v>
+      </c>
+      <c r="F52" t="str">
+        <v>PROLOGUE TUTAMAK(K.B.PIANO BLACK)</v>
+      </c>
+      <c r="G52" t="str">
+        <v>1</v>
+      </c>
+      <c r="H52" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I52" t="str">
+        <v>3</v>
+      </c>
+      <c r="J52" t="str">
+        <v>7</v>
+      </c>
+      <c r="K52" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L52" t="str">
+        <v>1,078815</v>
+      </c>
+      <c r="M52" t="str">
+        <v>0</v>
+      </c>
+      <c r="N52" t="str">
+        <v>0,347462</v>
+      </c>
+      <c r="O52" t="str">
+        <v>0</v>
+      </c>
+      <c r="P52" t="str">
+        <v>1,426277</v>
+      </c>
+      <c r="Q52" t="str"/>
+      <c r="R52" t="str"/>
+      <c r="S52" t="str"/>
+      <c r="T52" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U52" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B53" t="str">
+        <v> </v>
+      </c>
+      <c r="C53" t="str">
+        <v> </v>
+      </c>
+      <c r="D53" t="str">
+        <v> </v>
+      </c>
+      <c r="E53" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Sarf</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Fire</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Brm</v>
+      </c>
+      <c r="J53" t="str">
+        <v>MMO%</v>
+      </c>
+      <c r="K53" t="str">
+        <v>PMO%</v>
+      </c>
+      <c r="L53" t="str">
+        <v>PFO%</v>
+      </c>
+      <c r="M53" t="str">
+        <v>Malz.</v>
+      </c>
+      <c r="N53" t="str">
+        <v>FO T.</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="P53" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="R53" t="str"/>
+      <c r="S53" t="str"/>
+      <c r="T53" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U53" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2</v>
+      </c>
+      <c r="B54" t="str">
+        <v> </v>
+      </c>
+      <c r="C54" t="str">
+        <v>AS</v>
+      </c>
+      <c r="D54" t="str"/>
+      <c r="E54" t="str">
+        <v>9764060</v>
+      </c>
+      <c r="F54" t="str">
+        <v>ABS_PMMA-BLK-I-HB-HG</v>
+      </c>
+      <c r="G54" t="str">
+        <v>0,04425</v>
+      </c>
+      <c r="H54" t="str">
+        <v>12</v>
+      </c>
+      <c r="I54" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J54" t="str">
+        <v>3</v>
+      </c>
+      <c r="K54" t="str">
+        <v>7</v>
+      </c>
+      <c r="L54" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M54" t="str">
+        <v>21,2</v>
+      </c>
+      <c r="N54" t="str">
+        <v>0</v>
+      </c>
+      <c r="O54" t="str">
+        <v>0</v>
+      </c>
+      <c r="P54" t="str">
+        <v>0,028143</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>1,078815</v>
+      </c>
+      <c r="R54" t="str"/>
+      <c r="S54" t="str"/>
+      <c r="T54" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U54" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2</v>
+      </c>
+      <c r="B55" t="str">
+        <v> </v>
+      </c>
+      <c r="C55" t="str">
+        <v> </v>
+      </c>
+      <c r="D55" t="str">
+        <v> </v>
+      </c>
+      <c r="E55" t="str">
+        <v> </v>
+      </c>
+      <c r="F55" t="str">
+        <v>Op.Plan</v>
+      </c>
+      <c r="G55" t="str">
+        <v> </v>
+      </c>
+      <c r="H55" t="str">
+        <v> </v>
+      </c>
+      <c r="I55" t="str">
+        <v> </v>
+      </c>
+      <c r="J55" t="str">
+        <v> </v>
+      </c>
+      <c r="K55" t="str">
+        <v>7</v>
+      </c>
+      <c r="L55" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M55" t="str">
+        <v> </v>
+      </c>
+      <c r="N55" t="str">
+        <v>0,006211</v>
+      </c>
+      <c r="O55" t="str">
+        <v>0,318927</v>
+      </c>
+      <c r="P55" t="str">
+        <v>0,022325</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>0,347462</v>
+      </c>
+      <c r="R55" t="str"/>
+      <c r="S55" t="str"/>
+      <c r="T55" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U55" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>3_header_</v>
+      </c>
+      <c r="B56" t="str">
+        <v> </v>
+      </c>
+      <c r="C56" t="str">
+        <v> </v>
+      </c>
+      <c r="D56" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Esk.Formülü</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Op.Süresi(dk)</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Çvrm. Adt</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Pros.Net</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Pros.Fire</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="L56" t="str"/>
+      <c r="M56" t="str"/>
+      <c r="N56" t="str"/>
+      <c r="O56" t="str"/>
+      <c r="P56" t="str"/>
+      <c r="Q56" t="str"/>
+      <c r="R56" t="str"/>
+      <c r="S56" t="str"/>
+      <c r="T56" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U56" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>3</v>
+      </c>
+      <c r="B57" t="str">
+        <v> </v>
+      </c>
+      <c r="C57" t="str">
+        <v>Proses Maliyeti</v>
+      </c>
+      <c r="D57" t="str">
+        <v>100_TON_PLS_ENJ</v>
+      </c>
+      <c r="E57" t="str">
+        <v>60.46*[TRY]</v>
+      </c>
+      <c r="F57" t="str">
+        <v>60,46</v>
+      </c>
+      <c r="G57" t="str">
+        <v>0,633</v>
+      </c>
+      <c r="H57" t="str">
+        <v>2</v>
+      </c>
+      <c r="I57" t="str">
+        <v>0,318927</v>
+      </c>
+      <c r="J57" t="str">
+        <v>0</v>
+      </c>
+      <c r="K57" t="str">
+        <v>0,318927</v>
+      </c>
+      <c r="L57" t="str"/>
+      <c r="M57" t="str"/>
+      <c r="N57" t="str"/>
+      <c r="O57" t="str"/>
+      <c r="P57" t="str"/>
+      <c r="Q57" t="str"/>
+      <c r="R57" t="str"/>
+      <c r="S57" t="str"/>
+      <c r="T57" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U57" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2</v>
+      </c>
+      <c r="B58" t="str">
+        <v> </v>
+      </c>
+      <c r="C58" t="str">
+        <v> </v>
+      </c>
+      <c r="D58" t="str">
+        <v> </v>
+      </c>
+      <c r="E58" t="str">
+        <v> </v>
+      </c>
+      <c r="F58" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G58" t="str">
+        <v> </v>
+      </c>
+      <c r="H58" t="str">
+        <v> </v>
+      </c>
+      <c r="I58" t="str">
+        <v> </v>
+      </c>
+      <c r="J58" t="str">
+        <v> </v>
+      </c>
+      <c r="K58" t="str">
+        <v> </v>
+      </c>
+      <c r="L58" t="str">
+        <v> </v>
+      </c>
+      <c r="M58" t="str">
+        <v> </v>
+      </c>
+      <c r="N58" t="str">
+        <v> </v>
+      </c>
+      <c r="O58" t="str">
+        <v> </v>
+      </c>
+      <c r="P58" t="str">
+        <v> </v>
+      </c>
+      <c r="Q58" t="str">
+        <v>1,426277</v>
+      </c>
+      <c r="R58" t="str"/>
+      <c r="S58" t="str"/>
+      <c r="T58" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U58" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>1</v>
+      </c>
+      <c r="B59" t="str">
+        <v> </v>
+      </c>
+      <c r="C59" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D59" t="str"/>
+      <c r="E59" t="str">
+        <v>1400490100</v>
+      </c>
+      <c r="F59" t="str">
+        <v>PROLOGUE ARA KAPAK</v>
+      </c>
+      <c r="G59" t="str">
+        <v>1</v>
+      </c>
+      <c r="H59" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I59" t="str">
+        <v>3</v>
+      </c>
+      <c r="J59" t="str">
+        <v>7</v>
+      </c>
+      <c r="K59" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L59" t="str">
+        <v>4,020261</v>
+      </c>
+      <c r="M59" t="str">
+        <v>0</v>
+      </c>
+      <c r="N59" t="str">
+        <v>2,114119</v>
+      </c>
+      <c r="O59" t="str">
+        <v>0</v>
+      </c>
+      <c r="P59" t="str">
+        <v>6,134381</v>
+      </c>
+      <c r="Q59" t="str"/>
+      <c r="R59" t="str"/>
+      <c r="S59" t="str"/>
+      <c r="T59" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U59" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B60" t="str">
+        <v> </v>
+      </c>
+      <c r="C60" t="str">
+        <v> </v>
+      </c>
+      <c r="D60" t="str">
+        <v> </v>
+      </c>
+      <c r="E60" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Sarf</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Fire</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Brm</v>
+      </c>
+      <c r="J60" t="str">
+        <v>MMO%</v>
+      </c>
+      <c r="K60" t="str">
+        <v>PMO%</v>
+      </c>
+      <c r="L60" t="str">
+        <v>PFO%</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Malz.</v>
+      </c>
+      <c r="N60" t="str">
+        <v>FO T.</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="P60" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="R60" t="str"/>
+      <c r="S60" t="str"/>
+      <c r="T60" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U60" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2</v>
+      </c>
+      <c r="B61" t="str">
+        <v> </v>
+      </c>
+      <c r="C61" t="str">
+        <v>AS</v>
+      </c>
+      <c r="D61" t="str"/>
+      <c r="E61" t="str">
+        <v>9730197</v>
+      </c>
+      <c r="F61" t="str">
+        <v>ECO-PPHO-CA40-BLK-I</v>
+      </c>
+      <c r="G61" t="str">
+        <v>0,402</v>
+      </c>
+      <c r="H61" t="str">
+        <v>1,5</v>
+      </c>
+      <c r="I61" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J61" t="str">
+        <v>3</v>
+      </c>
+      <c r="K61" t="str">
+        <v>7</v>
+      </c>
+      <c r="L61" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M61" t="str">
+        <v>9,57</v>
+      </c>
+      <c r="N61" t="str">
+        <v>0</v>
+      </c>
+      <c r="O61" t="str">
+        <v>0</v>
+      </c>
+      <c r="P61" t="str">
+        <v>0,115414</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>4,020261</v>
+      </c>
+      <c r="R61" t="str"/>
+      <c r="S61" t="str"/>
+      <c r="T61" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U61" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2</v>
+      </c>
+      <c r="B62" t="str">
+        <v> </v>
+      </c>
+      <c r="C62" t="str">
+        <v> </v>
+      </c>
+      <c r="D62" t="str">
+        <v> </v>
+      </c>
+      <c r="E62" t="str">
+        <v> </v>
+      </c>
+      <c r="F62" t="str">
+        <v>Op.Plan</v>
+      </c>
+      <c r="G62" t="str">
+        <v> </v>
+      </c>
+      <c r="H62" t="str">
+        <v> </v>
+      </c>
+      <c r="I62" t="str">
+        <v> </v>
+      </c>
+      <c r="J62" t="str">
+        <v> </v>
+      </c>
+      <c r="K62" t="str">
+        <v>7</v>
+      </c>
+      <c r="L62" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M62" t="str">
+        <v> </v>
+      </c>
+      <c r="N62" t="str">
+        <v>0,037789</v>
+      </c>
+      <c r="O62" t="str">
+        <v>1,940495</v>
+      </c>
+      <c r="P62" t="str">
+        <v>0,135835</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>2,114119</v>
+      </c>
+      <c r="R62" t="str"/>
+      <c r="S62" t="str"/>
+      <c r="T62" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U62" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>3_header_</v>
+      </c>
+      <c r="B63" t="str">
+        <v> </v>
+      </c>
+      <c r="C63" t="str">
+        <v> </v>
+      </c>
+      <c r="D63" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Esk.Formülü</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Op.Süresi(dk)</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Çvrm. Adt</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Pros.Net</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Pros.Fire</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="L63" t="str"/>
+      <c r="M63" t="str"/>
+      <c r="N63" t="str"/>
+      <c r="O63" t="str"/>
+      <c r="P63" t="str"/>
+      <c r="Q63" t="str"/>
+      <c r="R63" t="str"/>
+      <c r="S63" t="str"/>
+      <c r="T63" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U63" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>3</v>
+      </c>
+      <c r="B64" t="str">
+        <v> </v>
+      </c>
+      <c r="C64" t="str">
+        <v>Proses Maliyeti</v>
+      </c>
+      <c r="D64" t="str">
+        <v>450_TON_PLS_ENJ</v>
+      </c>
+      <c r="E64" t="str">
+        <v>158.84*[TRY]</v>
+      </c>
+      <c r="F64" t="str">
+        <v>158,84</v>
+      </c>
+      <c r="G64" t="str">
+        <v>0,733</v>
+      </c>
+      <c r="H64" t="str">
+        <v>1</v>
+      </c>
+      <c r="I64" t="str">
+        <v>1,940495</v>
+      </c>
+      <c r="J64" t="str">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v>1,940495</v>
+      </c>
+      <c r="L64" t="str"/>
+      <c r="M64" t="str"/>
+      <c r="N64" t="str"/>
+      <c r="O64" t="str"/>
+      <c r="P64" t="str"/>
+      <c r="Q64" t="str"/>
+      <c r="R64" t="str"/>
+      <c r="S64" t="str"/>
+      <c r="T64" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U64" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2</v>
+      </c>
+      <c r="B65" t="str">
+        <v> </v>
+      </c>
+      <c r="C65" t="str">
+        <v> </v>
+      </c>
+      <c r="D65" t="str">
+        <v> </v>
+      </c>
+      <c r="E65" t="str">
+        <v> </v>
+      </c>
+      <c r="F65" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G65" t="str">
+        <v> </v>
+      </c>
+      <c r="H65" t="str">
+        <v> </v>
+      </c>
+      <c r="I65" t="str">
+        <v> </v>
+      </c>
+      <c r="J65" t="str">
+        <v> </v>
+      </c>
+      <c r="K65" t="str">
+        <v> </v>
+      </c>
+      <c r="L65" t="str">
+        <v> </v>
+      </c>
+      <c r="M65" t="str">
+        <v> </v>
+      </c>
+      <c r="N65" t="str">
+        <v> </v>
+      </c>
+      <c r="O65" t="str">
+        <v> </v>
+      </c>
+      <c r="P65" t="str">
+        <v> </v>
+      </c>
+      <c r="Q65" t="str">
+        <v>6,134381</v>
+      </c>
+      <c r="R65" t="str"/>
+      <c r="S65" t="str"/>
+      <c r="T65" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U65" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>1</v>
+      </c>
+      <c r="B66" t="str">
+        <v> </v>
+      </c>
+      <c r="C66" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D66" t="str"/>
+      <c r="E66" t="str">
+        <v>1400510100</v>
+      </c>
+      <c r="F66" t="str">
+        <v>DEKORATIF KAPAK</v>
+      </c>
+      <c r="G66" t="str">
+        <v>1</v>
+      </c>
+      <c r="H66" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I66" t="str">
+        <v>3</v>
+      </c>
+      <c r="J66" t="str">
+        <v>7</v>
+      </c>
+      <c r="K66" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L66" t="str">
+        <v>9,4116</v>
+      </c>
+      <c r="M66" t="str">
+        <v>0</v>
+      </c>
+      <c r="N66" t="str">
+        <v>2,690593</v>
+      </c>
+      <c r="O66" t="str">
+        <v>0</v>
+      </c>
+      <c r="P66" t="str">
+        <v>12,102193</v>
+      </c>
+      <c r="Q66" t="str"/>
+      <c r="R66" t="str"/>
+      <c r="S66" t="str"/>
+      <c r="T66" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U66" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B67" t="str">
+        <v> </v>
+      </c>
+      <c r="C67" t="str">
+        <v> </v>
+      </c>
+      <c r="D67" t="str">
+        <v> </v>
+      </c>
+      <c r="E67" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Sarf</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Fire</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Brm</v>
+      </c>
+      <c r="J67" t="str">
+        <v>MMO%</v>
+      </c>
+      <c r="K67" t="str">
+        <v>PMO%</v>
+      </c>
+      <c r="L67" t="str">
+        <v>PFO%</v>
+      </c>
+      <c r="M67" t="str">
+        <v>Malz.</v>
+      </c>
+      <c r="N67" t="str">
+        <v>FO T.</v>
+      </c>
+      <c r="O67" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="P67" t="str">
+        <v>MO T.</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="R67" t="str"/>
+      <c r="S67" t="str"/>
+      <c r="T67" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U67" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2</v>
+      </c>
+      <c r="B68" t="str">
+        <v> </v>
+      </c>
+      <c r="C68" t="str">
+        <v>AS</v>
+      </c>
+      <c r="D68" t="str"/>
+      <c r="E68" t="str">
+        <v>9764070</v>
+      </c>
+      <c r="F68" t="str">
+        <v>ABS-BLK-I-HB-HG</v>
+      </c>
+      <c r="G68" t="str">
+        <v>0,33</v>
+      </c>
+      <c r="H68" t="str">
+        <v>12</v>
+      </c>
+      <c r="I68" t="str">
+        <v>KG</v>
+      </c>
+      <c r="J68" t="str">
+        <v>3</v>
+      </c>
+      <c r="K68" t="str">
+        <v>7</v>
+      </c>
+      <c r="L68" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M68" t="str">
+        <v>24,8</v>
+      </c>
+      <c r="N68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O68" t="str">
+        <v>0</v>
+      </c>
+      <c r="P68" t="str">
+        <v>0,24552</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>9,4116</v>
+      </c>
+      <c r="R68" t="str"/>
+      <c r="S68" t="str"/>
+      <c r="T68" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U68" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2</v>
+      </c>
+      <c r="B69" t="str">
+        <v> </v>
+      </c>
+      <c r="C69" t="str">
+        <v> </v>
+      </c>
+      <c r="D69" t="str">
+        <v> </v>
+      </c>
+      <c r="E69" t="str">
+        <v> </v>
+      </c>
+      <c r="F69" t="str">
+        <v>Op.Plan</v>
+      </c>
+      <c r="G69" t="str">
+        <v> </v>
+      </c>
+      <c r="H69" t="str">
+        <v> </v>
+      </c>
+      <c r="I69" t="str">
+        <v> </v>
+      </c>
+      <c r="J69" t="str">
+        <v> </v>
+      </c>
+      <c r="K69" t="str">
+        <v>7</v>
+      </c>
+      <c r="L69" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="M69" t="str">
+        <v> </v>
+      </c>
+      <c r="N69" t="str">
+        <v>0,048093</v>
+      </c>
+      <c r="O69" t="str">
+        <v>2,469626</v>
+      </c>
+      <c r="P69" t="str">
+        <v>0,172874</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>2,690593</v>
+      </c>
+      <c r="R69" t="str"/>
+      <c r="S69" t="str"/>
+      <c r="T69" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U69" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>3_header_</v>
+      </c>
+      <c r="B70" t="str">
+        <v> </v>
+      </c>
+      <c r="C70" t="str">
+        <v> </v>
+      </c>
+      <c r="D70" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Esk.Formülü</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Op.Süresi(dk)</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Çvrm. Adt</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Pros.Net</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Pros.Fire</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="L70" t="str"/>
+      <c r="M70" t="str"/>
+      <c r="N70" t="str"/>
+      <c r="O70" t="str"/>
+      <c r="P70" t="str"/>
+      <c r="Q70" t="str"/>
+      <c r="R70" t="str"/>
+      <c r="S70" t="str"/>
+      <c r="T70" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U70" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>3</v>
+      </c>
+      <c r="B71" t="str">
+        <v> </v>
+      </c>
+      <c r="C71" t="str">
+        <v>Proses Maliyeti</v>
+      </c>
+      <c r="D71" t="str">
+        <v>500_TON_PLS_ENJ</v>
+      </c>
+      <c r="E71" t="str">
+        <v>161.66*[TRY]</v>
+      </c>
+      <c r="F71" t="str">
+        <v>161,66</v>
+      </c>
+      <c r="G71" t="str">
+        <v>0,9166</v>
+      </c>
+      <c r="H71" t="str">
+        <v>1</v>
+      </c>
+      <c r="I71" t="str">
+        <v>2,469626</v>
+      </c>
+      <c r="J71" t="str">
+        <v>0</v>
+      </c>
+      <c r="K71" t="str">
+        <v>2,469626</v>
+      </c>
+      <c r="L71" t="str"/>
+      <c r="M71" t="str"/>
+      <c r="N71" t="str"/>
+      <c r="O71" t="str"/>
+      <c r="P71" t="str"/>
+      <c r="Q71" t="str"/>
+      <c r="R71" t="str"/>
+      <c r="S71" t="str"/>
+      <c r="T71" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U71" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2</v>
+      </c>
+      <c r="B72" t="str">
+        <v> </v>
+      </c>
+      <c r="C72" t="str">
+        <v> </v>
+      </c>
+      <c r="D72" t="str">
+        <v> </v>
+      </c>
+      <c r="E72" t="str">
+        <v> </v>
+      </c>
+      <c r="F72" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G72" t="str">
+        <v> </v>
+      </c>
+      <c r="H72" t="str">
+        <v> </v>
+      </c>
+      <c r="I72" t="str">
+        <v> </v>
+      </c>
+      <c r="J72" t="str">
+        <v> </v>
+      </c>
+      <c r="K72" t="str">
+        <v> </v>
+      </c>
+      <c r="L72" t="str">
+        <v> </v>
+      </c>
+      <c r="M72" t="str">
+        <v> </v>
+      </c>
+      <c r="N72" t="str">
+        <v> </v>
+      </c>
+      <c r="O72" t="str">
+        <v> </v>
+      </c>
+      <c r="P72" t="str">
+        <v> </v>
+      </c>
+      <c r="Q72" t="str">
+        <v>12,102193</v>
+      </c>
+      <c r="R72" t="str"/>
+      <c r="S72" t="str"/>
+      <c r="T72" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U72" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>1</v>
+      </c>
+      <c r="B73" t="str">
+        <v> </v>
+      </c>
+      <c r="C73" t="str">
+        <v>KYS</v>
+      </c>
+      <c r="D73" t="str"/>
+      <c r="E73" t="str">
+        <v>2832450100</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10292 OZEL PLASTIK VIDASI</v>
+      </c>
+      <c r="G73" t="str">
+        <v>14</v>
+      </c>
+      <c r="H73" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I73" t="str">
+        <v>3</v>
+      </c>
+      <c r="J73" t="str">
+        <v>7</v>
+      </c>
+      <c r="K73" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L73" t="str">
+        <v>0,037918</v>
+      </c>
+      <c r="M73" t="str">
+        <v>0</v>
+      </c>
+      <c r="N73" t="str">
+        <v>0</v>
+      </c>
+      <c r="O73" t="str">
+        <v>0,015925</v>
+      </c>
+      <c r="P73" t="str">
+        <v>0,546777</v>
+      </c>
+      <c r="Q73" t="str"/>
+      <c r="R73" t="str"/>
+      <c r="S73" t="str"/>
+      <c r="T73" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U73" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B74" t="str">
+        <v> </v>
+      </c>
+      <c r="C74" t="str">
+        <v> </v>
+      </c>
+      <c r="D74" t="str">
+        <v>ÜY</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Tedarikçi</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="I74" t="str"/>
+      <c r="J74" t="str"/>
+      <c r="K74" t="str"/>
+      <c r="L74" t="str"/>
+      <c r="M74" t="str"/>
+      <c r="N74" t="str"/>
+      <c r="O74" t="str"/>
+      <c r="P74" t="str"/>
+      <c r="Q74" t="str"/>
+      <c r="R74" t="str"/>
+      <c r="S74" t="str"/>
+      <c r="T74" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U74" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2</v>
+      </c>
+      <c r="B75" t="str">
+        <v> </v>
+      </c>
+      <c r="C75" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D75" t="str">
+        <v>ÇMİ</v>
+      </c>
+      <c r="E75" t="str">
+        <v>2832450100</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10292 OZEL PLASTIK VIDASI</v>
+      </c>
+      <c r="G75" t="str">
+        <v>HAS VİDA SANAYİ VE TİCARET LTD. ŞTİ</v>
+      </c>
+      <c r="H75" t="str">
+        <v>0,036077</v>
+      </c>
+      <c r="I75" t="str"/>
+      <c r="J75" t="str"/>
+      <c r="K75" t="str"/>
+      <c r="L75" t="str"/>
+      <c r="M75" t="str"/>
+      <c r="N75" t="str"/>
+      <c r="O75" t="str"/>
+      <c r="P75" t="str"/>
+      <c r="Q75" t="str"/>
+      <c r="R75" t="str"/>
+      <c r="S75" t="str"/>
+      <c r="T75" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U75" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2</v>
+      </c>
+      <c r="B76" t="str">
+        <v> </v>
+      </c>
+      <c r="C76" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D76" t="str">
+        <v>ÇMİ</v>
+      </c>
+      <c r="E76" t="str">
+        <v>2832450100</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10292 OZEL PLASTIK VIDASI</v>
+      </c>
+      <c r="G76" t="str">
+        <v>MURAT CİVATA BAĞ.ELM.SAN.VE TİC.A.Ş</v>
+      </c>
+      <c r="H76" t="str">
+        <v>0,040679</v>
+      </c>
+      <c r="I76" t="str"/>
+      <c r="J76" t="str"/>
+      <c r="K76" t="str"/>
+      <c r="L76" t="str"/>
+      <c r="M76" t="str"/>
+      <c r="N76" t="str"/>
+      <c r="O76" t="str"/>
+      <c r="P76" t="str"/>
+      <c r="Q76" t="str"/>
+      <c r="R76" t="str"/>
+      <c r="S76" t="str"/>
+      <c r="T76" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U76" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2</v>
+      </c>
+      <c r="B77" t="str">
+        <v> </v>
+      </c>
+      <c r="C77" t="str">
+        <v> </v>
+      </c>
+      <c r="D77" t="str">
+        <v> </v>
+      </c>
+      <c r="E77" t="str">
+        <v> </v>
+      </c>
+      <c r="F77" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G77" t="str">
+        <v> </v>
+      </c>
+      <c r="H77" t="str">
+        <v>0,037918</v>
+      </c>
+      <c r="I77" t="str"/>
+      <c r="J77" t="str"/>
+      <c r="K77" t="str"/>
+      <c r="L77" t="str"/>
+      <c r="M77" t="str"/>
+      <c r="N77" t="str"/>
+      <c r="O77" t="str"/>
+      <c r="P77" t="str"/>
+      <c r="Q77" t="str"/>
+      <c r="R77" t="str"/>
+      <c r="S77" t="str"/>
+      <c r="T77" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U77" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>1</v>
+      </c>
+      <c r="B78" t="str">
+        <v> </v>
+      </c>
+      <c r="C78" t="str">
+        <v>KYS</v>
+      </c>
+      <c r="D78" t="str"/>
+      <c r="E78" t="str">
+        <v>2960150100</v>
+      </c>
+      <c r="F78" t="str">
+        <v>LASTIK TAKOZ</v>
+      </c>
+      <c r="G78" t="str">
+        <v>4</v>
+      </c>
+      <c r="H78" t="str">
+        <v>ST</v>
+      </c>
+      <c r="I78" t="str">
+        <v>3</v>
+      </c>
+      <c r="J78" t="str">
+        <v>7</v>
+      </c>
+      <c r="K78" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L78" t="str">
+        <v>0,086435</v>
+      </c>
+      <c r="M78" t="str">
+        <v>0</v>
+      </c>
+      <c r="N78" t="str">
+        <v>0</v>
+      </c>
+      <c r="O78" t="str">
+        <v>0,010372</v>
+      </c>
+      <c r="P78" t="str">
+        <v>0,356114</v>
+      </c>
+      <c r="Q78" t="str"/>
+      <c r="R78" t="str"/>
+      <c r="S78" t="str"/>
+      <c r="T78" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U78" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B79" t="str">
+        <v> </v>
+      </c>
+      <c r="C79" t="str">
+        <v> </v>
+      </c>
+      <c r="D79" t="str">
+        <v>ÜY</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Malzeme</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Tedarikçi</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Fiyat</v>
+      </c>
+      <c r="I79" t="str"/>
+      <c r="J79" t="str"/>
+      <c r="K79" t="str"/>
+      <c r="L79" t="str"/>
+      <c r="M79" t="str"/>
+      <c r="N79" t="str"/>
+      <c r="O79" t="str"/>
+      <c r="P79" t="str"/>
+      <c r="Q79" t="str"/>
+      <c r="R79" t="str"/>
+      <c r="S79" t="str"/>
+      <c r="T79" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U79" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2</v>
+      </c>
+      <c r="B80" t="str">
+        <v> </v>
+      </c>
+      <c r="C80" t="str">
+        <v>KÜ</v>
+      </c>
+      <c r="D80" t="str">
+        <v>ÇMİ</v>
+      </c>
+      <c r="E80" t="str">
+        <v>2960150100</v>
+      </c>
+      <c r="F80" t="str">
+        <v>LASTIK TAKOZ</v>
+      </c>
+      <c r="G80" t="str">
+        <v>MERCAN KAUÇUK</v>
+      </c>
+      <c r="H80" t="str">
+        <v>0,086435</v>
+      </c>
+      <c r="I80" t="str"/>
+      <c r="J80" t="str"/>
+      <c r="K80" t="str"/>
+      <c r="L80" t="str"/>
+      <c r="M80" t="str"/>
+      <c r="N80" t="str"/>
+      <c r="O80" t="str"/>
+      <c r="P80" t="str"/>
+      <c r="Q80" t="str"/>
+      <c r="R80" t="str"/>
+      <c r="S80" t="str"/>
+      <c r="T80" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U80" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2</v>
+      </c>
+      <c r="B81" t="str">
+        <v> </v>
+      </c>
+      <c r="C81" t="str">
+        <v> </v>
+      </c>
+      <c r="D81" t="str">
+        <v> </v>
+      </c>
+      <c r="E81" t="str">
+        <v> </v>
+      </c>
+      <c r="F81" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G81" t="str">
+        <v> </v>
+      </c>
+      <c r="H81" t="str">
+        <v>0,086435</v>
+      </c>
+      <c r="I81" t="str"/>
+      <c r="J81" t="str"/>
+      <c r="K81" t="str"/>
+      <c r="L81" t="str"/>
+      <c r="M81" t="str"/>
+      <c r="N81" t="str"/>
+      <c r="O81" t="str"/>
+      <c r="P81" t="str"/>
+      <c r="Q81" t="str"/>
+      <c r="R81" t="str"/>
+      <c r="S81" t="str"/>
+      <c r="T81" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U81" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>1</v>
+      </c>
+      <c r="B82" t="str">
+        <v> </v>
+      </c>
+      <c r="C82" t="str">
+        <v> </v>
+      </c>
+      <c r="D82" t="str">
+        <v> </v>
+      </c>
+      <c r="E82" t="str">
+        <v> </v>
+      </c>
+      <c r="F82" t="str">
+        <v>Op.Plan</v>
+      </c>
+      <c r="G82" t="str">
+        <v> </v>
+      </c>
+      <c r="H82" t="str">
+        <v> </v>
+      </c>
+      <c r="I82" t="str">
+        <v> </v>
+      </c>
+      <c r="J82" t="str">
+        <v>7</v>
+      </c>
+      <c r="K82" t="str">
+        <v>1,82</v>
+      </c>
+      <c r="L82" t="str">
+        <v> </v>
+      </c>
+      <c r="M82" t="str">
+        <v>0,150451</v>
+      </c>
+      <c r="N82" t="str">
+        <v>7,725733</v>
+      </c>
+      <c r="O82" t="str">
+        <v>0,540801</v>
+      </c>
+      <c r="P82" t="str">
+        <v>8,416985</v>
+      </c>
+      <c r="Q82" t="str"/>
+      <c r="R82" t="str"/>
+      <c r="S82" t="str"/>
+      <c r="T82" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U82" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2_header_</v>
+      </c>
+      <c r="B83" t="str">
+        <v> </v>
+      </c>
+      <c r="C83" t="str">
+        <v> </v>
+      </c>
+      <c r="D83" t="str">
+        <v>Açıklama</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Esk.Formülü</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Mlyt(Sa)</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Op.Süresi(dk)</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Çvrm. Adt</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Pros.Net</v>
+      </c>
+      <c r="J83" t="str">
+        <v>Pros.Fire</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Pros.</v>
+      </c>
+      <c r="L83" t="str"/>
+      <c r="M83" t="str"/>
+      <c r="N83" t="str"/>
+      <c r="O83" t="str"/>
+      <c r="P83" t="str"/>
+      <c r="Q83" t="str"/>
+      <c r="R83" t="str"/>
+      <c r="S83" t="str"/>
+      <c r="T83" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U83" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2</v>
+      </c>
+      <c r="B84" t="str">
+        <v> </v>
+      </c>
+      <c r="C84" t="str">
+        <v>Proses Maliyeti</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Ön_Kapak_Gruplama_İşçiliği</v>
+      </c>
+      <c r="E84" t="str">
+        <v>119.01*[TRY]</v>
+      </c>
+      <c r="F84" t="str">
+        <v>119,01</v>
+      </c>
+      <c r="G84" t="str">
+        <v>3,895</v>
+      </c>
+      <c r="H84" t="str">
+        <v>1</v>
+      </c>
+      <c r="I84" t="str">
+        <v>7,725733</v>
+      </c>
+      <c r="J84" t="str">
+        <v>0</v>
+      </c>
+      <c r="K84" t="str">
+        <v>7,725733</v>
+      </c>
+      <c r="L84" t="str"/>
+      <c r="M84" t="str"/>
+      <c r="N84" t="str"/>
+      <c r="O84" t="str"/>
+      <c r="P84" t="str"/>
+      <c r="Q84" t="str"/>
+      <c r="R84" t="str"/>
+      <c r="S84" t="str"/>
+      <c r="T84" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U84" t="str">
+        <v>126182</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>1</v>
+      </c>
+      <c r="B85" t="str">
+        <v> </v>
+      </c>
+      <c r="C85" t="str">
+        <v> </v>
+      </c>
+      <c r="D85" t="str">
+        <v> </v>
+      </c>
+      <c r="E85" t="str">
+        <v> </v>
+      </c>
+      <c r="F85" t="str">
+        <v>Topl.</v>
+      </c>
+      <c r="G85" t="str">
+        <v> </v>
+      </c>
+      <c r="H85" t="str">
+        <v> </v>
+      </c>
+      <c r="I85" t="str">
+        <v> </v>
+      </c>
+      <c r="J85" t="str">
+        <v> </v>
+      </c>
+      <c r="K85" t="str">
+        <v> </v>
+      </c>
+      <c r="L85" t="str">
+        <v> </v>
+      </c>
+      <c r="M85" t="str">
+        <v> </v>
+      </c>
+      <c r="N85" t="str">
+        <v> </v>
+      </c>
+      <c r="O85" t="str">
+        <v> </v>
+      </c>
+      <c r="P85" t="str">
+        <v>160,610366</v>
+      </c>
+      <c r="Q85" t="str"/>
+      <c r="R85" t="str"/>
+      <c r="S85" t="str"/>
+      <c r="T85" t="str">
+        <v>10/7/2021</v>
+      </c>
+      <c r="U85" t="str">
         <v>126182</v>
       </c>
     </row>
